--- a/Время обработки алгоритмов.xlsx
+++ b/Время обработки алгоритмов.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>ФИО</t>
   </si>
@@ -25,21 +25,24 @@
     <t>Процессор</t>
   </si>
   <si>
-    <t>i5-7300</t>
+    <t>i5-7300 2,5GHz</t>
   </si>
   <si>
     <t>ОС</t>
   </si>
   <si>
+    <t>Win 10</t>
+  </si>
+  <si>
+    <t>Среда программирования</t>
+  </si>
+  <si>
+    <t>Visual Studio</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>программирования</t>
-  </si>
-  <si>
     <t>Размер массива</t>
   </si>
   <si>
@@ -67,10 +70,16 @@
     <t>Bubble sort</t>
   </si>
   <si>
+    <t>-00:00:00.8427572</t>
+  </si>
+  <si>
     <t>2ч24м20с</t>
   </si>
   <si>
     <t>Shake sort</t>
+  </si>
+  <si>
+    <t>-00:00:00.1376580</t>
   </si>
   <si>
     <t>23м27с</t>
@@ -81,12 +90,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,10 +113,63 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -116,8 +178,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,57 +201,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,51 +240,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,73 +263,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,114 +437,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -484,6 +486,17 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -492,6 +505,50 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,37 +568,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,187 +601,175 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -755,7 +780,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1078,15 +1103,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="7" width="11.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="7" width="18.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:7">
@@ -1129,194 +1155,183 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="35" customHeight="1" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4">
-        <v>500000</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="G7" s="5"/>
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" ht="35" customHeight="1" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7">
+        <v>24766645</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" ht="35" customHeight="1" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3"/>
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="7">
+        <v>265707</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="7"/>
     </row>
-    <row r="14" ht="35" customHeight="1" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
+    <row r="14" ht="28" customHeight="1" spans="1:7">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" ht="28" customHeight="1" spans="1:7">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Время обработки алгоритмов.xlsx
+++ b/Время обработки алгоритмов.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>ФИО</t>
   </si>
@@ -58,9 +58,15 @@
     <t>Quick sort</t>
   </si>
   <si>
+    <t>-00:00:00.0030253</t>
+  </si>
+  <si>
     <t>Shell sort</t>
   </si>
   <si>
+    <t>-00:00:00.0009986</t>
+  </si>
+  <si>
     <t>Merge sort</t>
   </si>
   <si>
@@ -70,7 +76,10 @@
     <t>Bubble sort</t>
   </si>
   <si>
-    <t>-00:00:00.8427572</t>
+    <t>-00:00:01.0538456</t>
+  </si>
+  <si>
+    <t>-06:19:05.8094747</t>
   </si>
   <si>
     <t>2ч24м20с</t>
@@ -79,7 +88,10 @@
     <t>Shake sort</t>
   </si>
   <si>
-    <t>-00:00:00.1376580</t>
+    <t>-00:00:00.2121966</t>
+  </si>
+  <si>
+    <t>-00:05:50.8816789</t>
   </si>
   <si>
     <t>23м27с</t>
@@ -90,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -110,15 +122,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,14 +162,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,9 +199,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,15 +222,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,30 +252,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -246,9 +259,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,6 +275,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -270,180 +456,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,15 +521,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -537,17 +540,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -568,17 +560,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,6 +595,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -609,16 +621,16 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,138 +642,135 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -783,7 +792,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1106,7 +1117,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1155,173 +1166,181 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:7">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:7">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>10000</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8">
+      <c r="C6" s="8"/>
+      <c r="D6" s="7">
         <v>500000</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8">
+      <c r="E6" s="8"/>
+      <c r="F6" s="7">
         <v>1000000</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" ht="35" customHeight="1" spans="1:7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:7">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:7">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6">
+        <v>120018</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:7">
-      <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" ht="35" customHeight="1" spans="1:7">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:7">
-      <c r="A12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="7">
-        <v>24766645</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6">
+        <v>24773903</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1748454124</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" ht="35" customHeight="1" spans="1:7">
-      <c r="A13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="7">
-        <v>265707</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="7"/>
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2505582</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6">
+        <v>13046667</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:7">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Время обработки алгоритмов.xlsx
+++ b/Время обработки алгоритмов.xlsx
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>

--- a/Время обработки алгоритмов.xlsx
+++ b/Время обработки алгоритмов.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>ФИО</t>
   </si>
@@ -58,13 +58,22 @@
     <t>Quick sort</t>
   </si>
   <si>
-    <t>-00:00:00.0030253</t>
+    <t>-00:00:00.0039889</t>
+  </si>
+  <si>
+    <t>-00:00:02.5262380</t>
+  </si>
+  <si>
+    <t>-00:00:09.8329422</t>
   </si>
   <si>
     <t>Shell sort</t>
   </si>
   <si>
     <t>-00:00:00.0009986</t>
+  </si>
+  <si>
+    <t>-00:00:00.2204148</t>
   </si>
   <si>
     <t>Merge sort</t>
@@ -102,12 +111,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,9 +131,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,8 +152,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,16 +189,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,7 +228,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,59 +243,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,13 +290,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,13 +392,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,158 +474,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -498,17 +513,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -517,21 +521,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,36 +549,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -613,24 +582,59 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,144 +646,135 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -789,10 +784,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1117,7 +1112,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1169,178 +1164,190 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:7">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:7">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>10000</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7">
+      <c r="C6" s="5"/>
+      <c r="D6" s="4">
         <v>500000</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7">
+      <c r="E6" s="5"/>
+      <c r="F6" s="4">
         <v>1000000</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" ht="35" customHeight="1" spans="1:7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:7">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:7">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3">
         <v>120018</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3">
+        <v>24474071</v>
+      </c>
+      <c r="F9" s="3">
+        <v>51601206</v>
+      </c>
+      <c r="G9" s="3">
+        <v>51601206</v>
+      </c>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:7">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" ht="35" customHeight="1" spans="1:7">
-      <c r="A11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:7">
-      <c r="A12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3">
         <v>24773903</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3">
         <v>1748454124</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="6"/>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" ht="35" customHeight="1" spans="1:7">
-      <c r="A13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3">
         <v>2505582</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3">
         <v>13046667</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="6"/>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:7">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Время обработки алгоритмов.xlsx
+++ b/Время обработки алгоритмов.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>ФИО</t>
   </si>
@@ -111,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -137,10 +137,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,23 +161,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,14 +186,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,14 +234,6 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,9 +245,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,55 +280,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,187 +290,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,30 +531,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -559,6 +541,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -588,11 +594,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,239 +620,234 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
-    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
-    <cellStyle name="Процент" xfId="9" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
-    <cellStyle name="Итого" xfId="11" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
-    <cellStyle name="Примечание" xfId="14" builtinId="10"/>
-    <cellStyle name="40% — Акцент4" xfId="15" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9"/>
-    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1112,242 +1119,243 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="7" width="18.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="7" width="18.2857142857143" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:7">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>10000</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4">
+      <c r="C6" s="6"/>
+      <c r="D6" s="5">
         <v>500000</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4">
+      <c r="E6" s="6"/>
+      <c r="F6" s="5">
         <v>1000000</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" ht="35" customHeight="1" spans="1:7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:7">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:7">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>120018</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>24474071</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>51601206</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>51601206</v>
       </c>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:7">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" ht="35" customHeight="1" spans="1:7">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:7">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>24773903</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>1748454124</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" ht="35" customHeight="1" spans="1:7">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>2505582</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>13046667</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
